--- a/docs/5u24/doc/_downloads/nablarch5u7-releasenote.xlsx
+++ b/docs/5u24/doc/_downloads/nablarch5u7-releasenote.xlsx
@@ -1,86 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743A328-0DEC-4209-B196-DFBBE2F1E68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="750" windowWidth="20955" windowHeight="12105" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u7" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId3"/>
+    <sheet name="5u7" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u7'!$A$4:$N$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u7'!$A$1:$N$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u7'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u7'!$A$1:$N$16</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u7'!$5:$5</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u7'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u7'!$A$1:$L$16</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u7'!$5:$5</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u7'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u7'!$C$5:$L$16</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u7'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u7'!$A$1:$N$16</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u7'!$5:$5</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$E$1:$E$16</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$E$1:$E$16</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u7'!$A$1:$N$16</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u7'!$5:$5</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$E$1:$E$16</definedName>
-    <definedName name="Z_96DBAE9A_1F7D_4BD5_957A_BAABE8078AFA_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$DU$16</definedName>
-    <definedName name="Z_96DBAE9A_1F7D_4BD5_957A_BAABE8078AFA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u7'!$A$1:$N$16</definedName>
-    <definedName name="Z_96DBAE9A_1F7D_4BD5_957A_BAABE8078AFA_.wvu.PrintArea" localSheetId="2" hidden="1">バージョンアップ手順!$A$1:$C$10</definedName>
-    <definedName name="Z_96DBAE9A_1F7D_4BD5_957A_BAABE8078AFA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u7'!$4:$5</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$E$1:$E$16</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u7'!$A$1:$N$16</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u7'!$5:$5</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u7'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u7'!$C$5:$L$16</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u7'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u7'!$A$5:$N$16</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u7'!$A$1:$N$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u7'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <customWorkbookViews>
-    <customWorkbookView name="伊藤　清人 - 個人用ビュー" guid="{96DBAE9A-1F7D-4BD5-957A-BAABE8078AFA}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="977" activeSheetId="2"/>
-  </customWorkbookViews>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="185">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -89,237 +43,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アプリケーションへの影響内容と対処</t>
@@ -332,15 +70,15 @@
     <rPh sb="15" eb="17">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>リリース
@@ -348,15 +86,15 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>不具合の起因バージョン</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アプリケーション
@@ -364,7 +102,7 @@
     <rPh sb="11" eb="13">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>※2 変更点により、Nablarchの動作に変更がある場合に「あり」とします。
@@ -384,21 +122,21 @@
     <rPh sb="77" eb="79">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -408,15 +146,15 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>FBシステム
@@ -424,7 +162,7 @@
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>※3 チケット番号がないものはNablarch開発チーム内部検知したものです。</t>
@@ -437,7 +175,7 @@
     <rPh sb="30" eb="32">
       <t>ケンチ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>修正後のバージョン（※1）</t>
@@ -447,7 +185,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>-</t>
@@ -460,15 +198,15 @@
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>■Nablarch 5u7 リリースノート</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>5u6からの変更点を記載しています。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u7に書き換える</t>
@@ -481,7 +219,7 @@
     <rPh sb="68" eb="69">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>※1 バージョンアップする手順は、本書「バージョンアップ手順」シートを参照ください。</t>
@@ -497,15 +235,15 @@
     <rPh sb="35" eb="37">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ウェブアプリケーション</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ResourceLocatorで発生する可能性のあるStackOverflowErrorへの対応</t>
@@ -518,7 +256,7 @@
     <rPh sb="46" eb="48">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ResourceLocatorに対して長いパスを設定した場合、StackOverflowErrorが発生する可能性がありました。このため、複雑な正規表現を使用するのをやめ、長いパス指定時でもStackOverflowErrorが発生しないように対応しました。</t>
@@ -561,45 +299,45 @@
     <rPh sb="122" eb="124">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>GitHub issue</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>不具合</t>
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nabalrch-core 1.2.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core/issues/3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログ出力</t>
     <rPh sb="2" eb="4">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Interceptor.Implを公開APIに変更</t>
@@ -609,22 +347,22 @@
     <rPh sb="23" eb="25">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core/issues/5</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>インターセプタ</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>汎用データフォーマット</t>
     <rPh sb="0" eb="2">
       <t>ハニョウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>配列要素の孫要素を出力できない問題に対応</t>
@@ -646,19 +384,19 @@
     <rPh sb="18" eb="20">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core-dataformat 1.0.2</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/11</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">「element(配列)-&gt;child-&gt;grandchild」のように、配列要素からみて孫要素があるXMLを出力すると、子要素(child)が見つからないエラーが発生していました。このため、修正を行いこのような構造のXMLでも出力出来るようにしました。
@@ -729,35 +467,35 @@
     <rPh sb="145" eb="146">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>汎用データフォーマット</t>
     <rPh sb="0" eb="2">
       <t>ハンヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/6
 nablarch-core-dataformat/issues/8</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-fw-web-tag/issues/5</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>属性を持つ要素にコンテンツを定義できない問題に対応</t>
@@ -779,7 +517,7 @@
     <rPh sb="23" eb="25">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">XMLの入出力時、属性を持つ要素に対しコンテンツを定義できない問題に対応しました。
@@ -855,11 +593,11 @@
     <rPh sb="201" eb="202">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>JSPカスタムタグ</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「概要」を参照。
@@ -934,15 +672,15 @@
     <rPh sb="150" eb="152">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-fw-web-tag/issues/1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>n:textareaで表示するデータの先頭改行が削除されないように修正</t>
@@ -961,7 +699,7 @@
     <rPh sb="33" eb="35">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>先頭が改行文字のデータをn:textareaタグで表示すると、先頭の改行文字が削除されてブラウザで表示される問題がありました。
@@ -1017,7 +755,7 @@
     <rPh sb="103" eb="105">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">「概要」を参照。
@@ -1056,15 +794,15 @@
     <rPh sb="75" eb="77">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-fw-web-tag 1.0.4</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>フレームワーク</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>モジュールのバイトコードをJava6に準拠するように修正</t>
@@ -1074,7 +812,7 @@
     <rPh sb="26" eb="28">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「概要」を参照。
@@ -1091,19 +829,19 @@
     <rPh sb="23" eb="25">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-profiles 5u7</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>5u6</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Mavenプロファイル</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-bomに定義されているnablarch-wmq-adaptorのバージョンが誤っていたので修正しました。
@@ -1131,7 +869,7 @@
     <rPh sb="75" eb="76">
       <t>ゴ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-bomに定義されているnablarch-wmq-adaptorのバージョンが誤っていたので修正
@@ -1145,34 +883,34 @@
     <rPh sb="54" eb="56">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>汎用ユーティリティ</t>
     <rPh sb="0" eb="2">
       <t>ハンヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core-beans 1.1.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core-beans/issues/13</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">BeanUtilを使用してJava Beanにプロパティの値をコピーした際に、下記の条件に該当する値がコピーできない問題がありました。
@@ -1257,19 +995,19 @@
     <rPh sb="161" eb="162">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-testing/issues/4</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">期待値のパスだけではなくホストを含む完全なパスに変更してください。
@@ -1319,7 +1057,7 @@
     <rPh sb="146" eb="148">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アクションの返すパスのアサート方法を変更</t>
@@ -1332,7 +1070,7 @@
     <rPh sb="18" eb="20">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Webアプリケーションのアクションが返すHttpResponseのパスのアサート方法を変更しました。
@@ -1386,11 +1124,11 @@
     <rPh sb="122" eb="124">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プリミティブ配列を値に持つMapをログにダンプできるように変更</t>
@@ -1406,7 +1144,7 @@
     <rPh sb="29" eb="31">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">プリミティブ配列を値に持つMapをLogUtilを使ってダンプ(ログ出力)すると、ClassCastExceptionが発生する問題がありました。
@@ -1445,7 +1183,7 @@
     <rPh sb="102" eb="104">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">Inteceptor.Implは非公開APIとなっていましたが、アプリケーションでInterceptorを作成する際に継承する必要があるため、公開APIに変更しました。
@@ -1471,7 +1209,7 @@
     <rPh sb="77" eb="79">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>複数の値を出力するタグでプリミティブ配列を扱えるように修正</t>
@@ -1493,7 +1231,7 @@
     <rPh sb="27" eb="29">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">複数の値を出力するタグで、対象の値がプリミティブ配列として保持されている場合に、ClassCastExceptionが発生する問題がありました。
@@ -1544,7 +1282,7 @@
     <rPh sb="101" eb="103">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BeanUtilでnullの要素を１つだけ持つプロパティの値をコピーできない不具合に対応</t>
@@ -1563,45 +1301,45 @@
     <rPh sb="42" eb="44">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-testing 1.0.7</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>解説書</t>
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>汎用データフォーマット</t>
     <rPh sb="0" eb="2">
       <t>ハニョウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>5u6</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-document/issues/7</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">XML、JSONで使用可能なデータタイプ名が誤っていたので修正
@@ -1612,7 +1350,7 @@
     <rPh sb="20" eb="21">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">以下の通りXML及びJSONで使用可能なデータタイプの記載を修正しています。
@@ -1637,18 +1375,18 @@
     <rPh sb="30" eb="32">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Nablarchアプリケーションフレームワーク:Nablarchが提供するライブラリ:様々なフォーマットのデータへのアクセス:汎用データフォーマット:XMLで属性を持つ要素にコンテンツを定義する</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ファイルパス管理</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">空白を含むパスを使用できない仕様を追記
@@ -1656,7 +1394,7 @@
     <rPh sb="14" eb="16">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">Nablarchアプリケーションフレームワーク:Nablarchが提供するライブラリ:ファイルパス管理:ディレクトリと拡張子を設定する
@@ -1665,7 +1403,7 @@
     <rPh sb="74" eb="76">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>空白を含むパスを使用できない仕様を追記しました。</t>
@@ -1684,11 +1422,11 @@
     <rPh sb="17" eb="19">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-document/issues/5</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core-validation-ee/issues/1
@@ -1696,7 +1434,7 @@
 nablarch-fw-batch-ee/issues/2
 nablarch-fw-jaxrs/issues/4
 nablarch-jaxrs-adaptor/issues/1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">以下のモジュールのJavaのバイトコードがJava7に準拠していたので、Java6に準拠するように修正しました。
@@ -1720,7 +1458,7 @@
     <rPh sb="49" eb="51">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core-validation-ee 1.0.4
@@ -1730,7 +1468,7 @@
 nablarch-jackson-adaptor 1.0.2
 nablarch-jersey-adaptor 1.0.2
 nablarch-resteasy-adaptor 1.0.2</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1.0.3
@@ -1740,11 +1478,11 @@
 1.0.1
 1.0.1
 1.0.1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.2.3</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">「概要」に記載した条件に合致する使い方をしている場合は、影響を受けます。
@@ -1835,20 +1573,20 @@
     <rPh sb="188" eb="190">
       <t>ミナオ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-fw-web/issues/2
 nablarch-fw-web/issues/13</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-profiles/issues/1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>nablarch-core-dataformat 1.0.2</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">複雑な正規表現を削除したため、幾つかの機能を削除(仕様変更)しています。尚、これらの機能はNablarch内では使用していない機能となります。
@@ -1951,35 +1689,19 @@
     <rPh sb="239" eb="241">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2270,7 +1992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2282,7 +2004,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2320,213 +2042,204 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
-    <cellStyle name="標準 2 2 2" xfId="4"/>
-    <cellStyle name="標準 2 2 2 2" xfId="9"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="17"/>
-    <cellStyle name="標準 2 2 2 3" xfId="13"/>
-    <cellStyle name="標準 2 2 3" xfId="7"/>
-    <cellStyle name="標準 2 2 3 2" xfId="15"/>
-    <cellStyle name="標準 2 2 4" xfId="11"/>
-    <cellStyle name="標準 2 3" xfId="3"/>
-    <cellStyle name="標準 2 3 2" xfId="8"/>
-    <cellStyle name="標準 2 3 2 2" xfId="16"/>
-    <cellStyle name="標準 2 3 3" xfId="12"/>
-    <cellStyle name="標準 2 4" xfId="6"/>
-    <cellStyle name="標準 2 4 2" xfId="14"/>
-    <cellStyle name="標準 2 5" xfId="10"/>
-    <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2 2 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 2 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 2 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="標準 2 3 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準 2 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="標準 2 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="標準 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2541,12 +2254,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2588,7 +2304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2621,9 +2337,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2656,6 +2389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2831,377 +2581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{96DBAE9A-1F7D-4BD5-957A-BAABE8078AFA}" state="hidden">
-      <selection activeCell="B22" sqref="B22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3212,12 +2592,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="27" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="27" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -3230,723 +2610,708 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="7" customFormat="1" ht="19.5">
-      <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="D1" s="27"/>
+    <row r="1" spans="1:125" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:125" s="8" customFormat="1" ht="19.5">
-      <c r="A2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="54"/>
+    <row r="2" spans="1:125" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="51"/>
     </row>
-    <row r="3" spans="1:125" s="9" customFormat="1" ht="19.5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="AO3" s="10"/>
-      <c r="DU3" s="11"/>
+    <row r="3" spans="1:125" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="AO3" s="7"/>
+      <c r="DU3" s="8"/>
     </row>
-    <row r="4" spans="1:125" s="2" customFormat="1">
-      <c r="A4" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="56" t="s">
+    <row r="4" spans="1:125" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="56" t="s">
+      <c r="G4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:125" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+    </row>
+    <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:125" s="9" customFormat="1" ht="240" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="56" t="s">
-        <v>100</v>
-      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="21">
+        <v>14604</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="29"/>
     </row>
-    <row r="5" spans="1:125" s="2" customFormat="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-    </row>
-    <row r="6" spans="1:125" ht="21">
-      <c r="A6" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:125" s="12" customFormat="1" ht="240">
-      <c r="A7" s="14"/>
-      <c r="B7" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="24">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="24">
-        <v>14604</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="1:125" s="12" customFormat="1" ht="72">
-      <c r="A8" s="14"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="24">
+    <row r="8" spans="1:125" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="21">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="24">
+      <c r="D8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="21">
         <v>14625</v>
       </c>
-      <c r="N8" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="32"/>
+      <c r="N8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:125" s="12" customFormat="1" ht="84">
-      <c r="A9" s="14"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24">
+    <row r="9" spans="1:125" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="21">
         <f t="shared" ref="C9:C15" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="O9" s="32"/>
+      <c r="D9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:125" s="12" customFormat="1" ht="96">
-      <c r="A10" s="14"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="24">
+    <row r="10" spans="1:125" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="24">
+      <c r="D10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="21">
         <v>14618</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" s="32"/>
+      <c r="N10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:125" s="12" customFormat="1" ht="192">
-      <c r="A11" s="14"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="24">
+    <row r="11" spans="1:125" s="9" customFormat="1" ht="192" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="24">
+      <c r="D11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="21">
         <v>14638</v>
       </c>
-      <c r="N11" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" s="32"/>
+      <c r="N11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="29"/>
     </row>
-    <row r="12" spans="1:125" s="12" customFormat="1" ht="240">
-      <c r="A12" s="14"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="24">
+    <row r="12" spans="1:125" s="9" customFormat="1" ht="240" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="M12" s="24">
+      <c r="M12" s="21">
         <v>14601</v>
       </c>
-      <c r="N12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O12" s="32"/>
+      <c r="N12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="1:125" s="12" customFormat="1" ht="180">
-      <c r="A13" s="14"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="24">
+    <row r="13" spans="1:125" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="O13" s="32"/>
+      <c r="D13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="29"/>
     </row>
-    <row r="14" spans="1:125" s="12" customFormat="1" ht="60">
-      <c r="A14" s="14"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="24">
+    <row r="14" spans="1:125" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="D14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="24">
+      <c r="H14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="21">
         <v>14610</v>
       </c>
-      <c r="N14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="O14" s="32"/>
+      <c r="N14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="29"/>
     </row>
-    <row r="15" spans="1:125" s="12" customFormat="1" ht="84">
-      <c r="A15" s="14"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="24">
+    <row r="15" spans="1:125" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="24">
+      <c r="D15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="21">
         <v>14627</v>
       </c>
-      <c r="N15" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="O15" s="32"/>
+      <c r="N15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:125" s="12" customFormat="1" ht="132">
-      <c r="A16" s="14"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="24">
+    <row r="16" spans="1:125" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="21">
         <f>C15+1</f>
         <v>10</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="O16" s="32"/>
+      <c r="D16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="29"/>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="84">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="25">
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="22">
         <f>C16+1</f>
         <v>11</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="24">
+      <c r="D17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="21">
         <v>14624</v>
       </c>
-      <c r="N17" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="O17" s="32"/>
+      <c r="N17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="29"/>
     </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="72">
-      <c r="A18" s="47"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="25">
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="22">
         <f>C17+1</f>
         <v>12</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="M18" s="24">
+      <c r="D18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" s="21">
         <v>13591</v>
       </c>
-      <c r="N18" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="O18" s="32"/>
+      <c r="N18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="29"/>
     </row>
-    <row r="19" spans="1:15" s="46" customFormat="1" ht="21">
-      <c r="A19" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="45"/>
+    <row r="19" spans="1:15" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A19" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="42"/>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="192">
-      <c r="A20" s="38"/>
-      <c r="B20" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="24">
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="192" x14ac:dyDescent="0.15">
+      <c r="A20" s="35"/>
+      <c r="B20" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="21">
         <f>C18+1</f>
         <v>13</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="O20" s="32"/>
+      <c r="D20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N20">
+  <autoFilter ref="A4:N20" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <sortState ref="C8:O16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:O16">
     <sortCondition descending="1" ref="L8:L16"/>
   </sortState>
-  <customSheetViews>
-    <customSheetView guid="{96DBAE9A-1F7D-4BD5-957A-BAABE8078AFA}" showGridLines="0" fitToPage="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="64" max="13" man="1"/>
-        <brk id="75" max="13" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="8" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-      <headerFooter>
-        <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-      </headerFooter>
-    </customSheetView>
-  </customSheetViews>
   <mergeCells count="16">
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="H4:H5"/>
@@ -3965,17 +3330,17 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="J4:J5"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="89" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3983,118 +3348,109 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>79</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
   </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{96DBAE9A-1F7D-4BD5-957A-BAABE8078AFA}" scale="115" fitToPage="1">
-      <colBreaks count="1" manualBreakCount="1">
-        <brk id="3" max="9" man="1"/>
-      </colBreaks>
-      <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="9" man="1"/>
   </colBreaks>
